--- a/seta_onloading/downloads/submission_df.xlsx
+++ b/seta_onloading/downloads/submission_df.xlsx
@@ -933,22 +933,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yongama</t>
+          <t>Nonofo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Oratilwe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mkolokotho</t>
+          <t>Madoda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9604275776086</t>
+          <t>9306095092088</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1996/Apr/27</t>
+          <t>1993/Sep/06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>isiXhosa</t>
+          <t>seTswana</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Eastern Cape</t>
+          <t>North West</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1008,61 +1008,63 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>5601 Buffalo City Daleview King William's Town</t>
+          <t>0286 Rustenburg Rankelenyane Marikana</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ERF 288</t>
+          <t>11 Cassia Avenue
+Geelhout Park Ext 6</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Katlehong Location</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Mount Fletcher</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>7560</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Eastern Cape</t>
+          <t>North West</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>ERF 288</t>
+          <t>11 Cassia Avenue
+Geelhout Park Ext 6</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Katlehong Location</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Mount Fletcher</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>7560</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Eastern Cape</t>
+          <t>North West</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>200501358</v>
+        <v>600104090</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -1081,39 +1083,35 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2022/Jan/01</t>
+          <t>2022/Feb/01</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2022/Dec/31</t>
+          <t>2023/Jan/31</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>National Certificate</t>
+          <t>Matric</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mofokeng</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>Jolanie</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mpho</t>
+          <t>Luus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9802185762085</t>
+          <t>0310270060083</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1123,12 +1121,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1998/Feb/18</t>
+          <t>2003/Oct/27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1138,7 +1136,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Black: African</t>
+          <t>White</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1153,7 +1151,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>seSotho</t>
+          <t>Afrikaans</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1163,7 +1161,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Gauteng</t>
+          <t>Western Cape</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1173,61 +1171,61 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1157 Tseki Kgubetswana</t>
+          <t>4 Disa Street, Protea Heights</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Witsieshoek</t>
+          <t>Brackenfell</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Johannesburg</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>9870</t>
+          <t>7560</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Gauteng</t>
+          <t>Western Cape</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1157 Tseki Kgubetswana</t>
+          <t>4 Disa Street, Protea Heights</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Witsieshoek</t>
+          <t>Brackenfell</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Johannesburg</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>9870</t>
+          <t>7560</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Gauteng</t>
+          <t>Western Cape</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>350314171</v>
+        <v>650107770</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1246,39 +1244,39 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2022/Jan/01</t>
+          <t>2022/Feb/01</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2022/Dec/31</t>
+          <t>2023/Jan/31</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>National Certificate</t>
+          <t>Matric</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sonwabo</t>
+          <t>Rofhiwa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Given</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matola</t>
+          <t>Matumba</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9809055623081</t>
+          <t>8607076417082</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1288,7 +1286,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1998/May/09</t>
+          <t>1986/Jul/07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1318,7 +1316,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>isiXhosa</t>
+          <t>tshiVenda</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1328,7 +1326,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Eastern Cape</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1338,61 +1336,63 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>5601 Buffalo City Daleview King William's Town</t>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>No 13 Matutu Street</t>
+          <t>248/27 Teamong Section
+Tembisa</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Mbuque Ext</t>
+          <t>Ekurhuleni</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Mthatha</t>
+          <t>Ekurhuleni</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>5099</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Eastern Cape</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>No 13 Matutu Street</t>
+          <t>248/27 Teamong Section
+Tembisa</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Mbuque Ext</t>
+          <t>Ekurhuleni</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Mthatha</t>
+          <t>Ekurhuleni</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>5099</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Eastern Cape</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>350314171</v>
+        <v>650107770</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1411,39 +1411,35 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2022/Jan/01</t>
+          <t>2022/Feb/01</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2022/Dec/31</t>
+          <t>2023/Jan/31</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>National Certificate</t>
+          <t>Bachelors Degree</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Khumbulani</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>Wamashudu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Njilo</t>
+          <t>Sengani</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9608075285081</t>
+          <t>9902205665084</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1453,7 +1449,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1996/Jul/08</t>
+          <t>1999/Feb/20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1483,7 +1479,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>isiZulu</t>
+          <t>tshiVenda</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1493,7 +1489,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Kwazulu-Natal</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1503,90 +1499,90 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4339 eThekwini Metro Parkgate Verulam</t>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>67 Kwamakhutha Township</t>
+          <t>778 Iris Street</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Amanzimtoti</t>
+          <t>Lenasia</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Lenasia</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Kwazulu-Natal</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67 Kwamakhutha Township</t>
+          <t>778 Iris Street</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Amanzimtoti</t>
+          <t>Lenasia</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Lenasia</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Kwazulu-Natal</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>500126984</v>
+        <v>700111450</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2011-797023013</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2011-797023013</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2022/Jan/01</t>
+          <t>2022/Feb/01</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2022/Dec/31</t>
+          <t>2023/Jan/31</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>National Certificate</t>
+          <t>Higher Certificate</t>
         </is>
       </c>
     </row>

--- a/seta_onloading/downloads/submission_df.xlsx
+++ b/seta_onloading/downloads/submission_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,22 +933,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nonofo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Oratilwe</t>
-        </is>
-      </c>
+          <t>Boitumelo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Madoda</t>
+          <t>Moalosi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9306095092088</t>
+          <t>8906020440087</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -958,12 +954,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1993/Sep/06</t>
+          <t>1989/Feb/06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -998,7 +994,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>North West</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1008,63 +1004,63 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0286 Rustenburg Rankelenyane Marikana</t>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11 Cassia Avenue
-Geelhout Park Ext 6</t>
+          <t>10104 Eshowe Street
+Tokoza EXT 5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>North West</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>11 Cassia Avenue
-Geelhout Park Ext 6</t>
+          <t>10104 Eshowe Street
+Tokoza EXT 5</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>North West</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>600104090</v>
+        <v>700121137</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -1100,18 +1096,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jolanie</t>
+          <t>Lesego</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Luus</t>
+          <t>Makweya</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0310270060083</t>
+          <t>9612030275088</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1121,7 +1117,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2003/Oct/27</t>
+          <t>1996/Dec/12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1136,7 +1132,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black: African</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Afrikaans</t>
+          <t>English</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Western Cape</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1171,61 +1167,63 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>7925 Cape Town Metro Observatory Cape Town</t>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4 Disa Street, Protea Heights</t>
+          <t>5757 Section Q
+Mamelodi West</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Brackenfell</t>
+          <t>Pretoria</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Pretoria</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Western Cape</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>4 Disa Street, Protea Heights</t>
+          <t>5757 Section Q
+Mamelodi West</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Brackenfell</t>
+          <t>Pretoria</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Pretoria</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Western Cape</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>650107770</v>
+        <v>700211235</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1261,22 +1259,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rofhiwa</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Given</t>
-        </is>
-      </c>
+          <t>Khanyisile</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matumba</t>
+          <t>Nkabinde</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8607076417082</t>
+          <t>9910160044088</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1286,12 +1280,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1986/Jul/07</t>
+          <t>1999/Oct/16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1316,7 +1310,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>tshiVenda</t>
+          <t>English</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1341,23 +1335,24 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>248/27 Teamong Section
-Tembisa</t>
+          <t>Stand No 14348
+23 Godsberry Street
+Protea Glen, Soweto</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Ekurhuleni</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Ekurhuleni</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1367,23 +1362,24 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>248/27 Teamong Section
-Tembisa</t>
+          <t>Stand No 14348
+23 Godsberry Street
+Protea Glen, Soweto</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Ekurhuleni</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Ekurhuleni</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1392,7 +1388,7 @@
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>650107770</v>
+        <v>700121137</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1421,168 +1417,9459 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Bachelors Degree</t>
+          <t>Matric</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Amaze</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jabulile</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mkhonto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9405280653082</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1994/May/28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>xiTsonga</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Mpumalanga</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1309 Umjindi Kwa Mhola Barberton</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Stand No 40055
+Bushbuckridge
+Acornhoek</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Acornhoek</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Mpumalanga</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Stand No 40055
+Bushbuckridge
+Acornhoek</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Acornhoek</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Mpumalanga</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>800034921</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2011-797023013</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tunagirl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ledwaba</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9410190556086</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1994/Oct/19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>sePedi</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>298 Joe Modise Street
+Lotus Gardens</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>298 Joe Modise Street
+Lotus Gardens</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>700400208</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2011-369006003</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Emmanuel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Okwara</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0001146410087</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2000/Jan/14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>04 James Street</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Regent Park</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>04 James Street</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Regent Park</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>700122234</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2011-797023012</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fanelesbonge</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zondi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9806126277087</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1998/Dec/06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>114 Dambuza Location, Edendale</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Pietermaritzburg</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>KZN</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3201</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>114 Dambuza Location, Edendale</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Pietermaritzburg</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>KZN</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>3201</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2011-374001002</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Zahra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kader</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9605110167084</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1996/Nov/05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Black: Indian/Asian</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>188 Berrymead Ave.
+Mondeor</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>188 Berrymead Ave.
+Mondeor</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>700120840</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2011-798022021</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wandisa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dyonase</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9911280695080</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1999/Nov/28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>B 781A Mthonjeni Street Site C, Khayelitsha</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>B 781A Mthonjeni Street Site C, Khayelitsha</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v>200600123</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2011-860018001</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Palesa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Enocentia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Phiri</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0004070710084</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2000/Jul/04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>seSotho</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>3729 Ext 23 Rietvlei</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Krugersdorp</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>3729 Ext 23 Rietvlei</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Krugersdorp</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2011-529002001</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nokwanda</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zuleika</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sithole</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9901030323083</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1999/Mar/01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Lot F204 Sub 5Ward 19</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Kwadabeka</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Lot F204 Sub 5Ward 19</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Kwadabeka</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA14" t="n">
+        <v>500499907</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2011-589125001</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Katlego</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Phoka</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9403185387088</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1994/Mar/18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0286 Rustenburg Rankelenyane Marikana</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1733 Zone 16</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Letlhabile</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1733 Zone 16</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Letlhabile</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="AA15" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2011-591003001</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Alwaba</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kobo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9901275959088</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1999/Jan/27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>3 Virgo Street</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Milnerton</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>7441</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>3 Virgo Street</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Milnerton</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>7441</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA16" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2011-164018001</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sarah-Leigh</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Pijoos</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9801280046089</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1998/Jan/28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Black: Coloured</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>40 Waltham Road
+Lansdowne</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>40 Waltham Road
+Lansdowne</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2011-798015049</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tshese</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kananelo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nthunya</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9801265384083</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1998/Jan/26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>seSotho</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>5601 Buffalo City Daleview King William's Town</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2486 Mountain View</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Matatiele</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Matatiele City</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2486 Mountain View</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Matatiele</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Matatiele City</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2011-260113009</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Samkelisiwe</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mhlungu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9411240478081</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1994/Nov/24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>P448 Phambili Road</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Umlazi Township</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>P448 Phambili Road</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Umlazi Township</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2011-978032006</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ipeleng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oratile</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Setshedi</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9911075725084</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1999/Jul/11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0286 Rustenburg Rankelenyane Marikana</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Stand 125 Block B</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Lethlabile, Ward 11</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Brits</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Stand 125 Block B</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Lethlabile, Ward 11</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Brits</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
+        <v>600103619</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2011-567010001</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Diploma</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ipeleng</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oratile</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Setshedi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9911075725084</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1999/Jul/11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0286 Rustenburg Rankelenyane Marikana</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Stand 125 Block B</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Lethlabile, Ward 11</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Brits</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Stand 125 Block B</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Lethlabile, Ward 11</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Brits</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>700240598</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2011-593031001</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Diploma</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Varity</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Marisane</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ramogayana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0201135284085</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2002/Jan/13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0286 Rustenburg Rankelenyane Marikana</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>200 Block C</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Lethlabile</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Brits</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>200 Block C</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Lethlabile</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Brits</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="AA22" t="n">
+        <v>600100353</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2011-261005001</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mmapaseka</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Magdeline</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Letlhage</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9504150235085</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1995/Apr/15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>16085 Pilanesberg Street</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Kagiso</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>16085 Pilanesberg Street</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Kagiso</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA23" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2011-297087001</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Markus</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0101125413084</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2001/Dec/01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Black: Coloured</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Afrikaans</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>5 Bishopgate Court, Owen Road, Connaught Estate</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Elsies River</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>5 Bishopgate Court, Owen Road, Connaught Estate</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Elsies River</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA24" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2011-674001001</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Thapelo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Motlatsi</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Masiloane</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9701145366088</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1997/Jan/14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>seSotho</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>382 Phooko Section
+Katlehong</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1431</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>382 Phooko Section
+Katlehong</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>1431</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>700341594</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2011-271310001</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nabeel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9702025260086</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1997/Feb/02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Black: Indian/Asian</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>24 Willern Court159 Margaret Mncade Avenue</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Durban Central</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>24 Willern Court159 Margaret Mncade Avenue</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Durban Central</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA26" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2011-478009003</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mpumelelo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Moale</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9508295950086</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1995/Aug/29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>seSotho</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>3418 Msilinga StreetPimville</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>3418 Msilinga StreetPimville</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA27" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2011-199026002</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Athenkosi</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sivuyisiwe</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nomavila</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0112195344083</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2001/Dec/19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>5601 Buffalo City Daleview King William's Town</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>5 Kancaza Street</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Ikwezi, Mthatha</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Mthatha</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>5 Kancaza Street</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ikwezi, Mthatha</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Mthatha</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>2011-514018019</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nobulali</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Vimba</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9703100443084</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1997/Oct/03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>508 Bahama Street</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hibberdene</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>508 Bahama Street</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Hibberdene</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA29" t="n">
+        <v>500121656</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2011-599116052</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Joy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0001065372086</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2000/Jun/01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>6803 Zithulele Street
+Orange Farm Ext 2</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>6803 Zithulele Street
+Orange Farm Ext 2</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA30" t="n">
+        <v>700330969</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2011-877015002</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tshegofatso</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lizer</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Dingaan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0207290750083</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2002/Jul/29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>seSotho</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>272 Drawwer Street, 
+Derdepoort, 
+Pretoria</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>272 Drawwer Street, 
+Derdepoort, 
+Pretoria</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA31" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2011-797008013</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tebogo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mphela</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9805095617083</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1998/Sep/05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>isiNdebele</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Mpumalanga</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1309 Umjindi Kwa Mhola Barberton</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Stand No 0369, Malibongwe Street, Maphotla</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Siyabuswa</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Siyabuswa</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Mpumalanga</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Stand No 0369, Malibongwe Street, Maphotla</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Siyabuswa</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Siyabuswa</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Mpumalanga</t>
+        </is>
+      </c>
+      <c r="AA32" t="n">
+        <v>800006577</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2011-571013001</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Philani</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Dumakude</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9707255551088</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1997/Jul/25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>K893 Phumula Road</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Umlazi Township</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>K893 Phumula Road</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Umlazi Township</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA33" t="n">
+        <v>500207681</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2011-797011058</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mukiza</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rene</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kutazana</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9805236076082</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1998/May/23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>101 City Heights67 Broad Street</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>101 City Heights67 Broad Street</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA34" t="n">
+        <v>500125356</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2011-797011057</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>Diploma</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Octavia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Thando</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Moyo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0208181204081</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2002/Aug/18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>102 Guild street</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Randburg</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Johannanesburg</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>102 Guild street</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Randburg</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Johannanesburg</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA35" t="n">
+        <v>700150441</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2011-271116001</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Thabiso</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tebogo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Lefofana</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8911205491087</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1989/Nov/20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>sePedi</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>184 Protea Estate</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Noordwyk</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>184 Protea Estate</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Noordwyk</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA36" t="n">
+        <v>700231977</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>2011-677006015</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Siyamukelo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cebekulu</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0105165119089</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2001/May/16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1517 Dlebe Street
+Mofolo North
+Soweto</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>1517 Dlebe Street
+Mofolo North
+Soweto</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA37" t="n">
+        <v>700131367</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>2011-599179003</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sphelele</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Makau</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9902130993080</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1999/Feb/13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>235 Revengo StrMoretele View</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Mamelodi West</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>235 Revengo StrMoretele View</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Mamelodi West</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Pretoria</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA38" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>2011-560002001</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Amon</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9308045105085</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1993/Apr/08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Black: Coloured</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>26 Doncaster street</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Saldana</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>26 Doncaster street</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Saldana</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA39" t="n">
+        <v>107008229</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2011-299007039</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Aalia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ganie</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8808280038082</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1988/Aug/28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Black: Coloured</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>84 Waterloo Road
+Kenwyn</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>84 Waterloo Road
+Kenwyn</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA40" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>2011-277005002</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>Diploma</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gofaone</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Agisanang Lesedi</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Motsemme</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0212270353080</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2002/Dec/27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0286 Rustenburg Rankelenyane Marikana</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>12593 Tlhabologo Village</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Mafikeng</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Mafikeng</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>12593 Tlhabologo Village</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Mafikeng</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Mafikeng</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+      <c r="AA41" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>2011-261003005</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Slindile</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shokane</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0206130506085</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2002/Jun/13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Unit 25 Lakeview Complex,
+57 John Masefield Drive
+Mondeor Ext 5</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Unit 25 Lakeview Complex,
+57 John Masefield Drive
+Mondeor Ext 5</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA42" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>2011-797031007</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sisipho</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fikizolo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9509211180089</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1995/Sep/21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>05 Itthekwaana Street
+Bongweni</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Khayelitsha</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>05 Itthekwaana Street
+Bongweni</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Khayelitsha</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA43" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>2011-162006004</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tebogo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Lefatola</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0212125455080</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2002/Dec/12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>362 Fred Mlaba Street
+Vosloorus, Boksburg</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>362 Fred Mlaba Street
+Vosloorus, Boksburg</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ekurhuleni</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA44" t="n">
+        <v>700161893</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>2011-199053015</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sonwabile</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ntlahla</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9007056042084</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1990/May/07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>5601 Buffalo City Daleview King William's Town</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Lundini</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Lucwecwe</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Mqanduli</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>5080</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Lundini</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Lucwecwe</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Mqanduli</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>5080</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="AA45" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>2011-199055002</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sonwabo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Matola</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9809055623081</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1998/May/09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>5601 Buffalo City Daleview King William's Town</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>No 13 Matutu Street</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Mbuque Ext</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Mthatha</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>No 13 Matutu Street</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Mbuque Ext</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Mthatha</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Eastern Cape</t>
+        </is>
+      </c>
+      <c r="AA46" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>2011-199024004</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sicelo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ntombana</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9302225626085</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1993/Feb/22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>6172 Magubane Drive
+Ext 2
+Orange Farm</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>6172 Magubane Drive
+Ext 2
+Orange Farm</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA47" t="n">
+        <v>700121301</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>2011-869005010</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Liam</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Morilly</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9710115053089</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1997/Nov/10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Black: Coloured</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>14 Mont Rose Avenue, Elrich Estate, Paarl</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>7646</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>14 Mont Rose Avenue, Elrich Estate, Paarl</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>7646</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA48" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>2011-798015166</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Noxolo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Akhona</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mbasa</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9304240069085</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1993/Apr/24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>EQ-78 Umzimvubu Street, Witsand, Atlantis</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>EQ-78 Umzimvubu Street, Witsand, Atlantis</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA49" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>2011-760009010</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Thandolwenkosi</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nozipho</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Dube</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0010211098081</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2000/Oct/21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>82 Galteemore Street</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Malvern</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2094</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>82 Galteemore Street</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Malvern</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2094</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA50" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>2011-262003005</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kagiso</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Emmanuel</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Moepya</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0003195166081</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2000/Mar/19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Unit G25, Quest Consair,20C, Corsair Road, Sanddrift</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Milnerton</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>7441</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Unit G25, Quest Consair,20C, Corsair Road, Sanddrift</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Milnerton</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>7441</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA51" t="n">
+        <v>700310854</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>2011-599004003</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nomzamo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sbusisiwe</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Shozi</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9706300355081</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1997/Jun/30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>House no 12614Ntethe street</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Insizwakwazi Mariannhill</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Pinetown</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>House no 12614Ntethe street</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Insizwakwazi Mariannhill</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Pinetown</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA52" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>2011-968010001</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nkhensani</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mutileni</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9810060491084</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1998/Jun/10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>xiTsonga</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Limpopo</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0699 Polokwane Seshego Zone 3 Polokwane</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Stand 262A</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Waterval Townships</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Limpopo</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Stand 262A</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Waterval Townships</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Limpopo</t>
+        </is>
+      </c>
+      <c r="AA53" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>2011-295035001</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Siphesihle</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Songanga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0103315196081</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2001/Mar/31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2229 Unathi, Old Cross Roads</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>7750</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2229 Unathi, Old Cross Roads</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>7750</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA54" t="n">
+        <v>103310325</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>2011-970002001</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mpho</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Khensani</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Jele</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9811075498080</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1998/Jul/11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>4071 Tloome Street</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Orlando East</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>4071 Tloome Street</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Orlando East</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA55" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>2011-763004033</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mfundokazi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Vellem</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9203021290086</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1992/Feb/03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>isiXhosa</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>32 Agapanthus Close, Ruyterwacht</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Goodwood</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>7460</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>32 Agapanthus Close, Ruyterwacht</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Goodwood</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>7460</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA56" t="n">
+        <v>200200802</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>2011-368006001</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Khumbulani</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Griffiths</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Njilo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9608075285081</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1996/Jul/08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>67 Kwamakhutha Township</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Amanzimtoti</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>67 Kwamakhutha Township</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Amanzimtoti</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA57" t="n">
+        <v>500126984</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>2011-383005035</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Neo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mokoena</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9411135198083</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1994/Nov/13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>seSotho</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>12 Swartberg drive</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Oakdene ext 1</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>12 Swartberg drive</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Oakdene ext 1</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA58" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>2011-660020001</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>Advanced Diploma</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Wamashudu</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Sengani</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>9902205665084</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>National ID</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1999/Feb/20</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Black: African</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>South African</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>South Africa</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>tshiVenda</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>Single</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>Gauteng</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>GRADE 12</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>778 Iris Street</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>Lenasia</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>Lenasia</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>1827</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>Gauteng</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>778 Iris Street</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>Lenasia</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>Lenasia</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>1827</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>Gauteng</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA59" t="n">
         <v>700111450</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2011-797023013</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>2011-283086001</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>2022/Feb/01</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>2023/Jan/31</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>Higher Certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Goodall</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0101100528088</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2001/Oct/01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Black: Coloured</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1 Haddon Lodge
+2 Royal street 
+Haddon</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>1 Haddon Lodge
+2 Royal street 
+Haddon</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA60" t="n">
+        <v>700121061</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>2011-960029009</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Karabo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mashiho</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0110035316089</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2001/Mar/10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>seTswana</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>42 Teanong Section
+Kakongo Street</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Tembisa</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Ekhuruleni</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>42 Teanong Section
+Kakongo Street</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Tembisa</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Ekhuruleni</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA61" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>2011-173007001</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mxoleleni</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ndlovu</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9508236075084</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1995/Aug/23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>isiZulu</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>4339 eThekwini Metro Parkgate Verulam</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>462206</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Esikebheni Area</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Inanda</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>462206</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Esikebheni Area</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Inanda</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>Kwazulu-Natal</t>
+        </is>
+      </c>
+      <c r="AA62" t="n">
+        <v>500217930</v>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>2011-964030001</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sebole</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Phillip</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Masango</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9709125595089</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1997/Dec/09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>sePedi</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>7925 Cape Town Metro Observatory Cape Town</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>A2 Bay Point
+179 Beach Road</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Sea Point</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>8005</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>A2 Bay Point
+179 Beach Road</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Sea Point</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>8005</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>Western Cape</t>
+        </is>
+      </c>
+      <c r="AA63" t="n">
+        <v>700121137</v>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>2011-797011035</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>Matric</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Lindiwe</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tshabalala</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9401260604088</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>National ID</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1994/Jan/26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Black: African</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>South African</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>siSwati</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>GRADE 12</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>2017 Johannesburg Metro Braamfontein Johannesburg</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>3502 Stetford Ext1 ward 2
+Palm Spring</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Vaal</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Vaal</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>3502 Stetford Ext1 ward 2
+Palm Spring</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Vaal</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Vaal</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>Gauteng</t>
+        </is>
+      </c>
+      <c r="AA64" t="n">
+        <v>700321398</v>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>2011-199041095</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>2022/Feb/01</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>2023/Jan/31</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
         </is>
       </c>
     </row>
